--- a/CalcOutput/SBPrediction.xlsx
+++ b/CalcOutput/SBPrediction.xlsx
@@ -344,16 +344,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="n">
-        <v>0.0070355064049062</v>
+        <v>0.0129867619495103</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.00404062348129657</v>
+        <v>-0.00477222198665538</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.00180144518601237</v>
+        <v>-0.00614888577083178</v>
       </c>
       <c r="D1" t="n">
-        <v>0.54863914532338</v>
+        <v>2.00109081513898</v>
       </c>
     </row>
   </sheetData>
